--- a/調査一覧.xlsx
+++ b/調査一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,16 +82,6 @@
     </rPh>
     <rPh sb="88" eb="89">
       <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細はシート「widgets（web版）構築」を参照してください。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -327,6 +317,19 @@
     <t>widgets構築</t>
     <rPh sb="7" eb="9">
       <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mendixはreactを利用しているので、react-native-cameraを利用し、開発するほうがいいである。</t>
+    <rPh sb="13" eb="15">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カイハツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -349,7 +352,7 @@
       </rPr>
       <t xml:space="preserve">
 問題：
-ツールを利用し、ある内容を生成できます。※ネット調子せいで、生成しないようです。
+ツールを利用し、ある内容を生成できない。※ネット調子せいで、生成しないようです。
 回答　2020/3/23
 プロキシを使い、解決しました。
 </t>
@@ -417,15 +420,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mendixはreactを利用しているので、react-native-cameraを利用し、開発するほうがいいである。</t>
-    <rPh sb="13" eb="15">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カイハツ</t>
+    <t>詳細はシート「widgets構築」を参照してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -902,14 +902,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="60.625" customWidth="1"/>
-    <col min="5" max="5" width="48.625" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="4" max="4" width="60.6328125" customWidth="1"/>
+    <col min="5" max="5" width="48.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -923,7 +923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5" ht="52" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -931,21 +931,21 @@
         <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="162" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" ht="169" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>27</v>
@@ -966,164 +966,164 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="6" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="5" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1139,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/調査一覧.xlsx
+++ b/調査一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -555,57 +555,161 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>87033</xdr:rowOff>
+      <xdr:rowOff>39640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>63979</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>130832</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1838325" y="2144433"/>
-          <a:ext cx="6467475" cy="3427691"/>
+          <a:off x="876300" y="2020840"/>
+          <a:ext cx="6502879" cy="3393192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4203700" y="4730750"/>
+          <a:ext cx="869950" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>149098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667250" y="3994150"/>
+          <a:ext cx="2692400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34512"/>
+            <a:gd name="adj2" fmla="val 71828"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開発用言語</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -900,7 +1004,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -962,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/調査一覧.xlsx
+++ b/調査一覧.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="一覧" sheetId="1" r:id="rId1"/>
     <sheet name="widgets構築" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="サンプル" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -330,6 +330,23 @@
     </rPh>
     <rPh sb="46" eb="48">
       <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細はシート「widgets構築」を参照してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル説明</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -352,7 +369,7 @@
       </rPr>
       <t xml:space="preserve">
 問題：
-ツールを利用し、ある内容を生成できない。※ネット調子せいで、生成しないようです。
+ツールを利用し、ある内容を生成できない。※ネット調子なので、生成しないようです。
 回答　2020/3/23
 プロキシを使い、解決しました。
 </t>
@@ -420,12 +437,81 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>詳細はシート「widgets構築」を参照してください。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
+    <t>react-nativeのImageを利用し、画像を画面に表示できません。成功にビルドでも表示していない。
+Gps用関数nativeにおいて、使用不可です。原因調査中です。Nativeにサポートではないでしょか？</t>
+    <rPh sb="19" eb="21">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.概要設計
+2.スケジュール
+3.注意事項
+※カメラだけを説明させていただきます。
+Ｇｐｓに対して、同じため、こちらを説明しない。
+カメラソース：
+https://github.com/fuchb/mendix_caremrasample.git
+ブランチ：develop-company-camera-fullscreen 
+GPSソース：
+https://github.com/fuchb/mendix-GPSTest.git
+ブランチ：develop</t>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッケイ</t>
     </rPh>
     <rPh sb="18" eb="20">
-      <t>サンショウ</t>
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -434,7 +520,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +550,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -508,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -536,6 +629,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E5"/>
+  <dimension ref="B3:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1051,10 +1151,24 @@
         <v>25</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="143" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
+      <c r="D6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1068,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -1243,7 +1357,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/調査一覧.xlsx
+++ b/調査一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -46,46 +46,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カメラ使用サンプル</t>
-    <rPh sb="3" eb="5">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>widgetsというプラグインにはreactを使っているため、
-reactを利用し、開発されば、widgetsを作成するのは必要です。
-Widgets作成手順については、下記の通りです。</t>
-    <rPh sb="23" eb="24">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>１．ツールインストールは以下の通りである。</t>
     <rPh sb="12" eb="14">
       <t>イカ</t>
@@ -96,10 +56,128 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1-1.yoを利用し、widgetsを生成するので、yoをインストールするのは必要です。　※インストールコマン：npm install yo -g</t>
+    <t>2-4.上記新規フォルダにアクセスする。cd CustomWidgets</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※サンプルはfuchb-widget-001-mainを参照ください。</t>
+    <rPh sb="28" eb="30">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-5-1.設定に関して、下図を参照ください。</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シタズ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-5.yoを利用し、widgetsテンプレートを生成する。yo @mendix/widget TextBox　</t>
     <rPh sb="7" eb="9">
       <t>リヨウ</t>
     </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-6.widgets作成用ツールを行う。Npm run dev</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-8.toolboxには作成したTextBoxが見えます。</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-9.作成したTextBoxは表示したい画面に設定すると、該当画面で表示できます。</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>widgets構築</t>
+    <rPh sb="7" eb="9">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル説明</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1.npmをインストールする。詳細手順をこちらで略す。</t>
+    <rPh sb="17" eb="19">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>リャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2.yoを利用し、widgetsを生成するので、yoをインストールするのは必要です。　※インストールコマン：npm install yo -g</t>
+    <rPh sb="7" eb="9">
+      <t>リヨウ</t>
+    </rPh>
     <rPh sb="19" eb="21">
       <t>セイセイ</t>
     </rPh>
@@ -109,7 +187,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1-2.Mendixで使えるwidgetsの作成ツールをインストールする。※npm install -g @mendix/generator-widget</t>
+    <t>1-3.Mendixで使えるwidgetsの作成ツールをインストールする。※npm install -g @mendix/generator-widget</t>
     <rPh sb="11" eb="12">
       <t>ツカ</t>
     </rPh>
@@ -119,8 +197,148 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>2-1.ターミナルを開く。Cmdを利用し開く</t>
+    <rPh sb="10" eb="11">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2.ワークフォルダにアクセスする。Cd workspace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3.格納用フォルダを作成する。mkdir CustomWidgets</t>
+    <rPh sb="4" eb="6">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mendix Project Path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Which template do you want to use for the widget</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Which type of widget are you developing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Which　programming language do you want to use for the widget</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">開発用言語選び：javascriptもtypescript大丈夫です。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推薦：typescript</t>
+    <rPh sb="0" eb="2">
+      <t>スイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mendix格納箇所です。作成したmendix　appをここ入れると、作成した部品をビルドする後で、自動にここコピーする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>widgetのタイプ。ローカル版またはweb版</t>
+    <rPh sb="15" eb="16">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>For web and hybrid mobile apps：Web
+For native mobile apps：ローカル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Full Boilerplate：サンプル　※初心者向け
+Empty widget：空プロジェクト</t>
+    <rPh sb="23" eb="26">
+      <t>ショシンシャ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-5-2.重要なファイル：フォルダ構造に関して、サンプルに説明します。</t>
+    <rPh sb="6" eb="8">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t>2.サンプルソース作成：</t>
+      <t>2.サンプル作成：</t>
     </r>
     <r>
       <rPr>
@@ -133,228 +351,186 @@
       </rPr>
       <t>※例はTextBoxだけです。</t>
     </r>
-    <rPh sb="9" eb="11">
+    <rPh sb="6" eb="8">
       <t>サクセイ</t>
     </rPh>
-    <rPh sb="13" eb="14">
+    <rPh sb="10" eb="11">
       <t>レイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2-1.ターミナルを開く。</t>
-    <rPh sb="10" eb="11">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-2.ワークフォルダにアクセスする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-4.上記新規フォルダにアクセスする。cd CustomWidgets</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※サンプルはfuchb-widget-001-mainを参照ください。</t>
-    <rPh sb="28" eb="30">
-      <t>サンショウ</t>
+    <t>2-10.実行結果</t>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t>2-3.CustomWidgetsというフォルダを作成する。mkdir CustomWidgets</t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">カメラサンプルには、react-native-cameraというプラグインを利用している。
+現在位置を表示するために、GPSから取り来た情報を地図に渡して、MAPにマークできる。
+そのために、MAPという部品を使うのは必要である。
+MAP部品：react-amap
+</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>※注意：必ずCustomWidgets名前です。他は禁止です。</t>
+      <t xml:space="preserve">
+問題：
+react-nativeのImageを利用し、画像を画面に表示できません。成功にビルドでも表示していない。
+nativeにおいて、Gps用関数は使用不可です。原因調査中です。Nativeにサポートではないでしょか？</t>
     </r>
-    <rPh sb="25" eb="27">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
+    <rPh sb="38" eb="40">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="221" eb="224">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.概要設計は下表を参照してください。</t>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.注意事項</t>
+    <rPh sb="2" eb="4">
       <t>チュウイ</t>
     </rPh>
-    <rPh sb="53" eb="54">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>キンシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-5-1.設定に関して、下図を参照ください。</t>
-    <rPh sb="6" eb="8">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シタズ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-5.yoを利用し、widgetsテンプレートを生成する。yo @mendix/widget TextBox　</t>
-    <rPh sb="7" eb="9">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-5-2.重要なファイル：</t>
-    <rPh sb="6" eb="8">
-      <t>ジュウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①TextBox.jsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②TextBox.webmodeler.jsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③TextInput.jsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-6.widgets作成用ツールを行う。Npm run dev</t>
-    <rPh sb="11" eb="13">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-7.Studio Pro「IDE」を開き、widgetsを同期化ために、F4を押す。</t>
-    <rPh sb="20" eb="21">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ドウキ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-8.toolboxには作成したTextBoxが見えます。</t>
-    <rPh sb="13" eb="15">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-9.作成したTextBoxは表示したい画面に設定すると、該当画面で表示できます。</t>
     <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>widgets構築</t>
-    <rPh sb="7" eb="9">
-      <t>コウチク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mendixはreactを利用しているので、react-native-cameraを利用し、開発するほうがいいである。</t>
-    <rPh sb="13" eb="15">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カイハツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細はシート「widgets構築」を参照してください。</t>
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細はシート「widgets構築」を参照してください。
+Widgetsを使いフレームはreactである。</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
     </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウチク</t>
+    </rPh>
     <rPh sb="18" eb="20">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サンプル説明</t>
-    <rPh sb="4" eb="6">
+    <rPh sb="36" eb="37">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事項</t>
+    <rPh sb="0" eb="2">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">手順には下記分があります。
+      <t xml:space="preserve">手順には下記の通りである。
 ①必要ツールインストール
-②ソース作成　※現在は手順だけです。意味は調査中です。
+②サンプル作成　
 ③環境構築
 </t>
     </r>
@@ -371,8 +547,7 @@
 問題：
 ツールを利用し、ある内容を生成できない。※ネット調子なので、生成しないようです。
 回答　2020/3/23
-プロキシを使い、解決しました。
-</t>
+プロキシを使い、解決しました。</t>
     </r>
     <rPh sb="0" eb="2">
       <t>テジュン</t>
@@ -380,138 +555,452 @@
     <rPh sb="4" eb="6">
       <t>カキ</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>フン</t>
+    <rPh sb="7" eb="8">
+      <t>トオ</t>
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヒツヨウ</t>
     </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>チョウシ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造関数引数</t>
+    <rPh sb="0" eb="2">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティと状態「state」です。
+※stateはreact内容ので、説明しない。
+外部プロパティに関わらず、本コンポーネントプロパティだけです。
+Stateに関して、デフォルト値があるので、指定しなくてもいいです。</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
     <rPh sb="31" eb="33">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">例：
+interface IProps {
+}
+interface IState {
+    isPreview: boolean
+}
+export class CameraTest extends Component&lt;IProps, IState&gt; {
+    private camera:any;
+    constructor(props : IState) {
+        super(props);
+        this.state = {
+            isPreview: false,
+        };
+    }
+　　....
+｝
+</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネントのrefプロパティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当コンポーネントのハンドル取得用コールバックです。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-7.Studio Pro「IDE」を開き、作成したプロジェクトを選択し、プロジェクトを開く。widgetsを同期化ために、F4を押す。</t>
+    <rPh sb="20" eb="21">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
       <t>サクセイ</t>
     </rPh>
-    <rPh sb="35" eb="37">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
+    <rPh sb="34" eb="36">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｈｔｔｐリクエスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IOSでは、ｈｔｔｐリクエスト中で、GPSが利用できない。
+Httpリクエストからｈｔｔｐｓリクエストに変更するのは必要です。</t>
+    <rPh sb="15" eb="16">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：local-ssl-proxy --source 8087 --target 8086</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラもGPSもwidgetで構築する。　※手順は上記を参照ください。
+カメラ：ローカル版widget
+GPS：WEB版widget
+1.説明内容は以下の通りです。
+    1-1.概要設計
+    1-2.注意事項
+※カメラだけを説明させていただきます。
+Ｇｐｓに対して、同じため、説明を略す。
+2.ソース格納箇所
+    2-1.カメラソース：
+    https://github.com/fuchb/mendix_caremrasample.git
+    ブランチ：develop-company-camera-fullscreen 
+    2-2GPSソース：
+    https://github.com/fuchb/mendix-GPSTest.git
+    ブランチ：develop
+3.構築手順および実行結果
+詳細はシート「サンプル」を参照ください。</t>
+    <rPh sb="15" eb="17">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
       <t>テジュン</t>
     </rPh>
-    <rPh sb="45" eb="47">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
+    <rPh sb="25" eb="27">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>リャク</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="357" eb="359">
       <t>コウチク</t>
     </rPh>
-    <rPh sb="62" eb="64">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>チョウシ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>カイケツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>react-nativeのImageを利用し、画像を画面に表示できません。成功にビルドでも表示していない。
-Gps用関数nativeにおいて、使用不可です。原因調査中です。Nativeにサポートではないでしょか？</t>
-    <rPh sb="19" eb="21">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガゾウ</t>
+    <rPh sb="359" eb="361">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="364" eb="366">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="366" eb="368">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="370" eb="372">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="383" eb="385">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3構築手順および実行結果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1.指定なURL及びブランチでソースをダウンロードする。</t>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2.npm install を実行する</t>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2.npm run dev を実行する</t>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-3.project直下のすべてのファイルを「./dist\MxTestProject」にコピーする</t>
+    <rPh sb="11" eb="12">
+      <t>チョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-4.Studio Proでコピーしたmywidget.mprを開く。</t>
+    <rPh sb="33" eb="34">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>3-2.ターミナルを開く　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※パス長すぎなら、appを正常に起動できないので、パスを短くしてください。</t>
+    </r>
+    <rPh sb="16" eb="17">
+      <t>ナガ</t>
     </rPh>
     <rPh sb="26" eb="28">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-5.view→view in the mendix app をクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>3-4.運行をクリックする。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Gps場合直接的にViewをクリックする。</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ウンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>チョクセツテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-6.View Hybrid Mobile Appタブ をクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-７.電話でNative　it make というappを開いて、このQrcodeをスキャンすると、カメラが表示できる。</t>
+    <rPh sb="4" eb="6">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.5.1.settingsをダブルクリックする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.5.2.Editボタンをクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.5.3.Serverタブをクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.5.4.Serverタブをクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.5.5ターミナルでlocal-ssl-proxy --source 8087 --target 8086を実行する。</t>
+    <rPh sb="55" eb="57">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.5.6電話のブラウザで「https://アドレス:8087」を入力すると、下記画面へ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ゲンイン</t>
-    </rPh>
-    <rPh sb="81" eb="84">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.概要設計
-2.スケジュール
-3.注意事項
-※カメラだけを説明させていただきます。
-Ｇｐｓに対して、同じため、こちらを説明しない。
-カメラソース：
-https://github.com/fuchb/mendix_caremrasample.git
-ブランチ：develop-company-camera-fullscreen 
-GPSソース：
-https://github.com/fuchb/mendix-GPSTest.git
-ブランチ：develop</t>
-    <rPh sb="2" eb="4">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジコウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>セツメイ</t>
+    <rPh sb="44" eb="46">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -520,7 +1009,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,8 +1048,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,6 +1075,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -621,9 +1132,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -634,8 +1142,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,13 +1172,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>39640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>63979</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2083279</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>130832</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -693,26 +1208,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3778250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4203700" y="4730750"/>
-          <a:ext cx="869950" cy="177800"/>
+          <a:off x="863600" y="4819650"/>
+          <a:ext cx="4133850" cy="673100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -753,31 +1268,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>149098</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>79248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4"/>
+        <xdr:cNvPr id="10" name="角丸四角形吹き出し 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4667250" y="3994150"/>
-          <a:ext cx="2692400" cy="612648"/>
+          <a:off x="5715000" y="4914900"/>
+          <a:ext cx="2546350" cy="612648"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -34512"/>
-            <a:gd name="adj2" fmla="val 71828"/>
+            <a:gd name="adj1" fmla="val -79736"/>
+            <a:gd name="adj2" fmla="val -42185"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -805,7 +1320,1610 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>開発用言語</a:t>
+            <a:t>説明は下表を参照してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>96744</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1410327</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>89233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="706344" y="9245600"/>
+          <a:ext cx="8558933" cy="4546933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1771650</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="13112750"/>
+          <a:ext cx="869950" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2527300</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>110998</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="角丸四角形吹き出し 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="11671300"/>
+          <a:ext cx="2273300" cy="987298"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61282"/>
+            <a:gd name="adj2" fmla="val 97740"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作成した部品をプロジェクトに追加しました。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>25797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2070727</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>146383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="387350" y="14383147"/>
+          <a:ext cx="9538327" cy="5067236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>89297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>38497</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1022350" y="16758047"/>
+          <a:ext cx="869950" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2832100</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>130445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="角丸四角形吹き出し 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1778000" y="15316597"/>
+          <a:ext cx="2273300" cy="987298"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58209"/>
+            <a:gd name="adj2" fmla="val 95810"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面で追加した</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TextBox</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が正常に表示される</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>117083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3009900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>73661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="596900" y="447283"/>
+          <a:ext cx="7835900" cy="5074678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>58898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1365729</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>60056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="10790398"/>
+          <a:ext cx="6013929" cy="3138058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>176039</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>92871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1829279</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="785639" y="14291471"/>
+          <a:ext cx="6466540" cy="3374230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>61692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2546829</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>32000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="749300" y="18222692"/>
+          <a:ext cx="7220429" cy="3767608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1625985</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>60292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="755650" y="22555200"/>
+          <a:ext cx="6293235" cy="4746592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>264086</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603877</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>76533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="873686" y="27819350"/>
+          <a:ext cx="9001191" cy="4781883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>13097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>267327</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>6683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812800" y="33033097"/>
+          <a:ext cx="10554327" cy="5606986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1758950</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4889500" y="33229550"/>
+          <a:ext cx="1136650" cy="387350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>117348</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="角丸四角形吹き出し 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4292600" y="33845500"/>
+          <a:ext cx="1492250" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39584"/>
+            <a:gd name="adj2" fmla="val -86754"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>実行ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1035337</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>89229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="869950" y="45859700"/>
+          <a:ext cx="5588287" cy="6401129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="53003450"/>
+          <a:ext cx="2432050" cy="4159250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="右矢印 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714750" y="54114700"/>
+          <a:ext cx="1746250" cy="946150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2609850</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5568950" y="52920900"/>
+          <a:ext cx="2463800" cy="4171950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1708150</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="下矢印 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="38989000"/>
+          <a:ext cx="1276350" cy="2520950"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="1 つの角を切り取った四角形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4559300" y="40227250"/>
+          <a:ext cx="1797050" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>カメラ場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="右矢印 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5873750" y="39509700"/>
+          <a:ext cx="5403850" cy="920750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2406650</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="730250" y="41859200"/>
+          <a:ext cx="7099300" cy="4038600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>140327</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>127333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11849100" y="39382700"/>
+          <a:ext cx="12192627" cy="6477333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89214</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11785600" y="46551851"/>
+          <a:ext cx="6109014" cy="6083300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>482844</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>158928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11709400" y="53492400"/>
+          <a:ext cx="4750044" cy="3460928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438394</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>25578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11664950" y="57321450"/>
+          <a:ext cx="4750044" cy="3460928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12934950" y="58470800"/>
+          <a:ext cx="1041400" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="角丸四角形吹き出し 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13563600" y="57626250"/>
+          <a:ext cx="1587500" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -23233"/>
+            <a:gd name="adj2" fmla="val 79808"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ポートは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>8086</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に設定する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>178279</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>76450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11709400" y="61252100"/>
+          <a:ext cx="9322279" cy="4864350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12065000" y="66725800"/>
+          <a:ext cx="2660650" cy="4756150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12795250" y="68859400"/>
+          <a:ext cx="1181100" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>15748</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="角丸四角形吹き出し 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12077700" y="69900800"/>
+          <a:ext cx="1968500" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13038"/>
+            <a:gd name="adj2" fmla="val -87790"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>現在地が大連なので、大連がマークされる。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1102,20 +3220,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E6"/>
+  <dimension ref="B3:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="3" max="3" width="19.6328125" customWidth="1"/>
     <col min="4" max="4" width="60.6328125" customWidth="1"/>
     <col min="5" max="5" width="48.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1129,46 +3245,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="52" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="143">
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="169" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="260">
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="143" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>30</v>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1180,170 +3282,336 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B42"/>
+  <dimension ref="B2:E109"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <cols>
+    <col min="3" max="3" width="58.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" customWidth="1"/>
+    <col min="15" max="15" width="58.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="65">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="52">
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="26">
+      <c r="B39" s="3">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="26">
+      <c r="B40" s="3">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="6"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="6"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="6"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="6"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="2:2" ht="25.5">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="109" spans="2:2" ht="25.5">
+      <c r="B109" s="5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1355,15 +3623,153 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:J382"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <cols>
+    <col min="3" max="3" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" customWidth="1"/>
+    <col min="5" max="5" width="55.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="C37" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="234">
+      <c r="C38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="26">
+      <c r="C39" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5" ht="52">
+      <c r="C40" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="217" spans="10:10">
+      <c r="J217" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="260" spans="2:10">
+      <c r="B260" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J260" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="302" spans="2:10">
+      <c r="B302" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J302" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="326" spans="10:10">
+      <c r="J326" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="349" spans="10:10">
+      <c r="J349" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="382" spans="10:10">
+      <c r="J382" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/調査一覧.xlsx
+++ b/調査一覧.xlsx
@@ -9,14 +9,16 @@
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
     <sheet name="widgets構築" sheetId="2" r:id="rId2"/>
-    <sheet name="サンプル" sheetId="3" r:id="rId3"/>
+    <sheet name="アーキテクチャ" sheetId="4" r:id="rId3"/>
+    <sheet name="子コンポーネント実装の補足説明" sheetId="5" r:id="rId4"/>
+    <sheet name="サンプル" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -143,13 +145,6 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>widgets構築</t>
-    <rPh sb="7" eb="9">
-      <t>コウチク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -370,286 +365,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">カメラサンプルには、react-native-cameraというプラグインを利用している。
-現在位置を表示するために、GPSから取り来た情報を地図に渡して、MAPにマークできる。
-そのために、MAPという部品を使うのは必要である。
-MAP部品：react-amap
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-問題：
-react-nativeのImageを利用し、画像を画面に表示できません。成功にビルドでも表示していない。
-nativeにおいて、Gps用関数は使用不可です。原因調査中です。Nativeにサポートではないでしょか？</t>
-    </r>
-    <rPh sb="38" eb="40">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>チズ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ブヒン</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ブヒン</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="219" eb="221">
-      <t>ゲンイン</t>
-    </rPh>
-    <rPh sb="221" eb="224">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.概要設計は下表を参照してください。</t>
-    <rPh sb="2" eb="4">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.注意事項</t>
-    <rPh sb="2" eb="4">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細はシート「widgets構築」を参照してください。
-Widgetsを使いフレームはreactである。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>事項</t>
     <rPh sb="0" eb="2">
       <t>ジコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">手順には下記の通りである。
-①必要ツールインストール
-②サンプル作成　
-③環境構築
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-問題：
-ツールを利用し、ある内容を生成できない。※ネット調子なので、生成しないようです。
-回答　2020/3/23
-プロキシを使い、解決しました。</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>チョウシ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>カイケツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構造関数引数</t>
-    <rPh sb="0" eb="2">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロパティと状態「state」です。
-※stateはreact内容ので、説明しない。
-外部プロパティに関わらず、本コンポーネントプロパティだけです。
-Stateに関して、デフォルト値があるので、指定しなくてもいいです。</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>カカ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -677,10 +395,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コンポーネントのrefプロパティ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>該当コンポーネントのハンドル取得用コールバックです。</t>
     <rPh sb="0" eb="2">
       <t>ガイトウ</t>
@@ -747,122 +461,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カメラもGPSもwidgetで構築する。　※手順は上記を参照ください。
-カメラ：ローカル版widget
-GPS：WEB版widget
-1.説明内容は以下の通りです。
-    1-1.概要設計
-    1-2.注意事項
-※カメラだけを説明させていただきます。
-Ｇｐｓに対して、同じため、説明を略す。
-2.ソース格納箇所
-    2-1.カメラソース：
-    https://github.com/fuchb/mendix_caremrasample.git
-    ブランチ：develop-company-camera-fullscreen 
-    2-2GPSソース：
-    https://github.com/fuchb/mendix-GPSTest.git
-    ブランチ：develop
-3.構築手順および実行結果
-詳細はシート「サンプル」を参照ください。</t>
-    <rPh sb="15" eb="17">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>リャク</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="357" eb="359">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="359" eb="361">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="364" eb="366">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="366" eb="368">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="370" eb="372">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="383" eb="385">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3構築手順および実行結果</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-1.指定なURL及びブランチでソースをダウンロードする。</t>
-    <rPh sb="4" eb="6">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-2.npm install を実行する</t>
-    <rPh sb="17" eb="19">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3-2.npm run dev を実行する</t>
     <rPh sb="17" eb="19">
       <t>ジッコウ</t>
@@ -870,25 +468,391 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3-3.project直下のすべてのファイルを「./dist\MxTestProject」にコピーする</t>
-    <rPh sb="11" eb="12">
-      <t>チョク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-4.Studio Proでコピーしたmywidget.mprを開く。</t>
+    <t>widget作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">手順には下記の通りである。
+①必要ツールインストール
+②簡単サンプル作成　
+③環境構築
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>カメラ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>widget</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">には、react-native-cameraというプラグインを利用している。
+現在位置を表示するために、GPSから取り来た情報をMAPに渡して、MAPにマークされる。
+※使用部品はreact-amapです。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+問題：
+react-nativeのImageを利用し、画像を画面に表示できません。成功にビルドでも表示していない。
+nativeにおいて、Gps用関数は使用不可です。原因調査中です。Nativeはサポートではないでしょか？</t>
+    </r>
+    <rPh sb="40" eb="42">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="202" eb="205">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタムwidgetアーキテクチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子コンポーネント実装の補足説明</t>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">カメラwidgetとGPSwidgetを作成する。　※手順は上記を参照ください。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>カメラ：ローカル版
+GPS：WEB版widget
+native web hybrid 三つ環境別々で実装する
+環境使い方は劉さんに聞くか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.ソース格納箇所
+    1-1.カメラソース：
+    https://github.com/fuchb/mendix_caremrasample.git
+    ブランチ：develop-company-camera-fullscreen 
+    1-2GPSソース：
+    https://github.com/fuchb/mendix-GPSTest.git
+    ブランチ：develop
+2.構築手順および実行結果
+詳細はシート「サンプル」を参照ください。</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ベツベツ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="318" eb="320">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="320" eb="322">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="325" eb="327">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="327" eb="329">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="331" eb="333">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="344" eb="346">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子コンポーネント構造関数引数</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティと状態「state」です。
+外部プロパティに関わらず、子コンポーネントプロパティだけです。
+Stateに関して、デフォルト値があるので、指定しなくてもいいです。
+しかし、該当コンポーネントでstateを使えば、必ず指定する。</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カカ</t>
+    </rPh>
     <rPh sb="33" eb="34">
-      <t>ヒラ</t>
+      <t>コ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネントのrefプロパティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細はシート「widget構築」を参照してください。
+Ｗidgetを使いフレームはreactである。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細はシート「アーキテクチャ」を参照してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細はシート「子コンポーネント実装の補足説明」を参照してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構築手順および実行結果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.指定なURL及びブランチでソースをダウンロードする。</t>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t>3-2.ターミナルを開く　</t>
+      <t>2.ターミナルを開く　</t>
     </r>
     <r>
       <rPr>
@@ -901,27 +865,65 @@
       </rPr>
       <t>※パス長すぎなら、appを正常に起動できないので、パスを短くしてください。</t>
     </r>
-    <rPh sb="16" eb="17">
+    <rPh sb="14" eb="15">
       <t>ナガ</t>
     </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="24" eb="26">
       <t>セイジョウ</t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="27" eb="29">
       <t>キドウ</t>
     </rPh>
-    <rPh sb="41" eb="42">
+    <rPh sb="39" eb="40">
       <t>ミジカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3-5.view→view in the mendix app をクリックする。</t>
+    <t>3.npm install を実行する</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.project直下のすべてのファイルを「./dist\MxTestProject」にコピーする</t>
+    <rPh sb="9" eb="10">
+      <t>チョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.Studio Proでコピーしたmywidget.mprを開く。</t>
+    <rPh sb="31" eb="32">
+      <t>ヒラ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t>3-4.運行をクリックする。</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.運行をクリックする。</t>
     </r>
     <r>
       <rPr>
@@ -934,73 +936,77 @@
       </rPr>
       <t xml:space="preserve"> Gps場合直接的にViewをクリックする。</t>
     </r>
-    <rPh sb="4" eb="6">
+    <rPh sb="2" eb="4">
       <t>ウンコウ</t>
     </rPh>
-    <rPh sb="18" eb="20">
+    <rPh sb="16" eb="18">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="20" eb="23">
+    <rPh sb="18" eb="21">
       <t>チョクセツテキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3-6.View Hybrid Mobile Appタブ をクリックする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-７.電話でNative　it make というappを開いて、このQrcodeをスキャンすると、カメラが表示できる。</t>
-    <rPh sb="4" eb="6">
+    <t>6.1.settingsをダブルクリックする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.2.Editボタンをクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.3.Serverタブをクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.4.Serverタブをクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.5ターミナルでlocal-ssl-proxy --source 8087 --target 8086を実行する。</t>
+    <rPh sb="53" eb="55">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.6電話のブラウザで「https://アドレス:8087」を入力すると、下記画面へ遷移する。</t>
+    <rPh sb="3" eb="5">
       <t>デンワ</t>
     </rPh>
-    <rPh sb="29" eb="30">
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.view→view in the mendix app をクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.View Hybrid Mobile Appタブ をクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.電話でNative　it make というappを開いて、このQrcodeをスキャンすると、カメラが表示できる。</t>
+    <rPh sb="2" eb="4">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
       <t>ヒラ</t>
     </rPh>
-    <rPh sb="54" eb="56">
+    <rPh sb="52" eb="54">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.5.1.settingsをダブルクリックする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.5.2.Editボタンをクリックする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.5.3.Serverタブをクリックする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.5.4.Serverタブをクリックする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.5.5ターミナルでlocal-ssl-proxy --source 8087 --target 8086を実行する。</t>
-    <rPh sb="55" eb="57">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.5.6電話のブラウザで「https://アドレス:8087」を入力すると、下記画面へ遷移する。</t>
-    <rPh sb="5" eb="7">
-      <t>デンワ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1009,7 +1015,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,6 +1070,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1112,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1151,6 +1164,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1661,15 +1677,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>117083</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3009900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>73661</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>518462</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>129358</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1692,8 +1708,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="596900" y="447283"/>
-          <a:ext cx="7835900" cy="5074678"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8443262" cy="5742758"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1702,17 +1718,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>58898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1365729</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>60056</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1723,7 +1744,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1744,13 +1765,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>176039</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>92871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1829279</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1761,7 +1782,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1782,13 +1803,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>61692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2546829</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>32000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1799,7 +1820,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1820,14 +1841,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1625985</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>60292</xdr:rowOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>60293</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1837,7 +1858,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1858,13 +1879,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>264086</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>603877</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>76533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1875,7 +1896,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1896,13 +1917,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>13097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>267327</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>6683</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1913,7 +1934,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1934,13 +1955,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1758950</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1994,13 +2015,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>117348</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2055,13 +2076,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1035337</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>89229</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2072,7 +2093,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2093,14 +2114,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>304</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>329</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2110,7 +2131,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2137,13 +2158,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>310</xdr:row>
+      <xdr:row>270</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2191,14 +2212,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2609850</xdr:colOff>
-      <xdr:row>328</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2208,7 +2229,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2235,13 +2256,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1708150</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2289,13 +2310,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1428750</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2346,13 +2367,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2400,13 +2421,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2406650</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2417,7 +2438,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2455,13 +2476,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>140327</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>127333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2472,7 +2493,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2493,14 +2514,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>158751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>89214</xdr:colOff>
-      <xdr:row>297</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2510,7 +2531,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2531,13 +2552,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>482844</xdr:colOff>
-      <xdr:row>323</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>158928</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2548,7 +2569,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2569,13 +2590,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>438394</xdr:colOff>
-      <xdr:row>347</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>25578</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2586,7 +2607,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2607,13 +2628,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>333</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>335</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2667,13 +2688,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2736,13 +2757,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>350</xdr:row>
+      <xdr:row>310</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>178279</xdr:colOff>
-      <xdr:row>379</xdr:row>
+      <xdr:row>339</xdr:row>
       <xdr:rowOff>76450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2753,7 +2774,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2774,13 +2795,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>383</xdr:row>
+      <xdr:row>343</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>411</xdr:row>
+      <xdr:row>371</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2791,7 +2812,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2818,13 +2839,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>356</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>400</xdr:row>
+      <xdr:row>360</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2873,13 +2894,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>402</xdr:row>
+      <xdr:row>362</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>406</xdr:row>
+      <xdr:row>366</xdr:row>
       <xdr:rowOff>15748</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3220,13 +3241,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E5"/>
+  <dimension ref="B3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="3" max="3" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.6328125" customWidth="1"/>
     <col min="5" max="5" width="48.6328125" customWidth="1"/>
   </cols>
@@ -3245,32 +3266,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="143">
+    <row r="4" spans="2:5" ht="78">
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="260">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>13</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>38</v>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" ht="208">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3301,37 +3342,37 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -3417,44 +3458,44 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="D36" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="E36" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="65">
+    </row>
+    <row r="37" spans="2:5" ht="39">
       <c r="B37" s="3">
         <v>1</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="52">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="39">
       <c r="B38" s="3">
         <v>2</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="E38" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="26">
@@ -3462,13 +3503,13 @@
         <v>3</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="26">
@@ -3476,16 +3517,16 @@
         <v>4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -3495,7 +3536,7 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="6" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -3600,7 +3641,7 @@
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="2:2">
@@ -3623,9 +3664,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J382"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <cols>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="4" max="4" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5">
+      <c r="C2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" ht="234">
+      <c r="C3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" ht="26">
+      <c r="C4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="3:5" ht="52">
+      <c r="C5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J342"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
@@ -3636,135 +3755,83 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="C37" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="234">
-      <c r="C38" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="26">
-      <c r="C39" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="2:5" ht="52">
-      <c r="C40" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="6" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="6" t="s">
+    <row r="139" spans="2:2">
+      <c r="B139" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10">
+      <c r="J177" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="217" spans="10:10">
-      <c r="J217" t="s">
+    <row r="192" spans="2:10">
+      <c r="B192" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10">
+      <c r="B220" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J220" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10">
+      <c r="B262" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J262" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="286" spans="10:10">
+      <c r="J286" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
-      <c r="B232" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="260" spans="2:10">
-      <c r="B260" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J260" t="s">
+    <row r="309" spans="10:10">
+      <c r="J309" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="302" spans="2:10">
-      <c r="B302" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J302" t="s">
+    <row r="342" spans="10:10">
+      <c r="J342" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="326" spans="10:10">
-      <c r="J326" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="349" spans="10:10">
-      <c r="J349" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="382" spans="10:10">
-      <c r="J382" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/調査一覧.xlsx
+++ b/調査一覧.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="widgets構築" sheetId="2" r:id="rId2"/>
+    <sheet name="widget構築" sheetId="2" r:id="rId2"/>
     <sheet name="アーキテクチャ" sheetId="4" r:id="rId3"/>
-    <sheet name="子コンポーネント実装の補足説明" sheetId="5" r:id="rId4"/>
+    <sheet name="補足説明" sheetId="5" r:id="rId4"/>
     <sheet name="サンプル" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -518,6 +518,282 @@
     <rPh sb="41" eb="43">
       <t>コウチク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタムwidgetアーキテクチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子コンポーネント構造関数引数</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネントのrefプロパティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細はシート「widget構築」を参照してください。
+Ｗidgetを使いフレームはreactである。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細はシート「アーキテクチャ」を参照してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構築手順および実行結果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.指定なURL及びブランチでソースをダウンロードする。</t>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2.ターミナルを開く　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※パス長すぎなら、appを正常に起動できないので、パスを短くしてください。</t>
+    </r>
+    <rPh sb="14" eb="15">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.npm install を実行する</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.project直下のすべてのファイルを「./dist\MxTestProject」にコピーする</t>
+    <rPh sb="9" eb="10">
+      <t>チョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.Studio Proでコピーしたmywidget.mprを開く。</t>
+    <rPh sb="31" eb="32">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.運行をクリックする。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Gps場合直接的にViewをクリックする。</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>ウンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>チョクセツテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.1.settingsをダブルクリックする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.2.Editボタンをクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.3.Serverタブをクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.4.Serverタブをクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.5ターミナルでlocal-ssl-proxy --source 8087 --target 8086を実行する。</t>
+    <rPh sb="53" eb="55">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.6電話のブラウザで「https://アドレス:8087」を入力すると、下記画面へ遷移する。</t>
+    <rPh sb="3" eb="5">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.view→view in the mendix app をクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.View Hybrid Mobile Appタブ をクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.電話でNative　it make というappを開いて、このQrcodeをスキャンすると、カメラが表示できる。</t>
+    <rPh sb="2" eb="4">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティと状態「state」です。
+外部プロパティではなく、子コンポーネントプロパティだけです。
+Stateに関して、デフォルト値があるので、指定しなくてもいいです。
+しかし、該当コンポーネントでstateを使えば、必ず指定する。</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細はシート「補足説明」を参照してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足説明</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -567,7 +843,22 @@
       <t xml:space="preserve">
 問題：
 react-nativeのImageを利用し、画像を画面に表示できません。成功にビルドでも表示していない。
-nativeにおいて、Gps用関数は使用不可です。原因調査中です。Nativeはサポートではないでしょか？</t>
+nativeにおいて、Gps用関数は使用不可です。原因調査中です。Nativeはサポートではないでしょか？
+native web hybrid 三つ環境別々で実装する
+環境構築仕方は劉さんに聞くか？
+劉さんに確認しました。理解しないことをもらう。
+公式サイトの説明の通り、ipaまたはapkようなファイルを作成する中で、appcenterのappを作成していない。Iosは呉さんに聞くか？私の左様です。Andriodは宅さんに聞くか？
+公式サイトアドレス：https://docs.mendix.com/howto/mobile/deploying-native-app
+呉さんに確認しました。依頼プロジェクトが多いです。配置が難しいので、時間をかかる。
+呉さんはちょっと忙しいので、協力できません。いつは協力するか確定できません。
+現況は以下の通りです。
+1.cameraに関して、 web、hybrid、nativeはツールだけを利用し、カメラを使っている。
+appの作成手順が調査中だから、実施していない。
+2.GPSについて、web、hybridはツールだけを利用し、GPSを使っているが、nativeに対して、利用不可ようです。
+プロジェクトに下記配置を追加するならいいでしょか？下記URLを参照してください。
+https://github.com/react-native-community/react-native-geolocation
+Make it Nativeはサポートしていない。　appを利用したら、使える。詳細が調査中です。
+3.発行について、nativeが調査中ですが、hybridが未着手です。</t>
     </r>
     <rPh sb="40" eb="42">
       <t>リヨウ</t>
@@ -626,16 +917,89 @@
     <rPh sb="202" eb="205">
       <t>チョウサチュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カスタムwidgetアーキテクチャ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>子コンポーネント実装の補足説明</t>
-    <rPh sb="8" eb="10">
-      <t>ジッソウ</t>
+    <rPh sb="532" eb="534">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="550" eb="552">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="553" eb="554">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="568" eb="569">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="597" eb="599">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="605" eb="606">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="616" eb="618">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="618" eb="620">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="621" eb="623">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="623" eb="624">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="628" eb="630">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="687" eb="688">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="691" eb="693">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="693" eb="695">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="708" eb="710">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="710" eb="712">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="713" eb="715">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="726" eb="728">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="732" eb="734">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="840" eb="842">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="846" eb="847">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="850" eb="852">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="853" eb="855">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="855" eb="856">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="863" eb="865">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="877" eb="879">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="879" eb="880">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="891" eb="892">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -653,10 +1017,76 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>カメラ：ローカル版
-GPS：WEB版widget
-native web hybrid 三つ環境別々で実装する
-環境使い方は劉さんに聞くか？</t>
+      <t>1.カメラ：
+　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-1.native</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：写真を撮って、撮った写真を写真集に格納する。
+　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-2.webとhybrid：写真を撮って、撮った写真が画面に表示される。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GPS：
+    2-1webとhybrid:取った位置がMAPにマークされる。
+　　2-2.native:問題なので、実装していない。
+</t>
     </r>
     <r>
       <rPr>
@@ -670,7 +1100,8 @@
 1.ソース格納箇所
     1-1.カメラソース：
     https://github.com/fuchb/mendix_caremrasample.git
-    ブランチ：develop-company-camera-fullscreen 
+    nativeブランチ：develop-company-camera-fullscreen
+    webとhybridブランチ：develop-web
     1-2GPSソース：
     https://github.com/fuchb/mendix-GPSTest.git
     ブランチ：develop
@@ -689,324 +1120,68 @@
     <rPh sb="33" eb="35">
       <t>サンショウ</t>
     </rPh>
-    <rPh sb="49" eb="50">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ベツベツ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>リュウ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>キ</t>
+    <rPh sb="61" eb="63">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ガメン</t>
     </rPh>
     <rPh sb="117" eb="119">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
       <t>カクノウ</t>
     </rPh>
-    <rPh sb="119" eb="121">
+    <rPh sb="206" eb="208">
       <t>カショ</t>
     </rPh>
-    <rPh sb="318" eb="320">
+    <rPh sb="442" eb="444">
       <t>コウチク</t>
     </rPh>
-    <rPh sb="320" eb="322">
+    <rPh sb="444" eb="446">
       <t>テジュン</t>
     </rPh>
-    <rPh sb="325" eb="327">
+    <rPh sb="449" eb="451">
       <t>ジッコウ</t>
     </rPh>
-    <rPh sb="327" eb="329">
+    <rPh sb="451" eb="453">
       <t>ケッカ</t>
     </rPh>
-    <rPh sb="331" eb="333">
+    <rPh sb="455" eb="457">
       <t>ショウサイ</t>
     </rPh>
-    <rPh sb="344" eb="346">
+    <rPh sb="468" eb="470">
       <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>子コンポーネント構造関数引数</t>
-    <rPh sb="0" eb="1">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロパティと状態「state」です。
-外部プロパティに関わらず、子コンポーネントプロパティだけです。
-Stateに関して、デフォルト値があるので、指定しなくてもいいです。
-しかし、該当コンポーネントでstateを使えば、必ず指定する。</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>カカ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンポーネントのrefプロパティ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細はシート「widget構築」を参照してください。
-Ｗidgetを使いフレームはreactである。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細はシート「アーキテクチャ」を参照してください。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細はシート「子コンポーネント実装の補足説明」を参照してください。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構築手順および実行結果</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.指定なURL及びブランチでソースをダウンロードする。</t>
-    <rPh sb="2" eb="4">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>2.ターミナルを開く　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※パス長すぎなら、appを正常に起動できないので、パスを短くしてください。</t>
-    </r>
-    <rPh sb="14" eb="15">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ミジカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.npm install を実行する</t>
-    <rPh sb="15" eb="17">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.project直下のすべてのファイルを「./dist\MxTestProject」にコピーする</t>
-    <rPh sb="9" eb="10">
-      <t>チョク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.Studio Proでコピーしたmywidget.mprを開く。</t>
-    <rPh sb="31" eb="32">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.運行をクリックする。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Gps場合直接的にViewをクリックする。</t>
-    </r>
-    <rPh sb="2" eb="4">
-      <t>ウンコウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>チョクセツテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.1.settingsをダブルクリックする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.2.Editボタンをクリックする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.3.Serverタブをクリックする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.4.Serverタブをクリックする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.5ターミナルでlocal-ssl-proxy --source 8087 --target 8086を実行する。</t>
-    <rPh sb="53" eb="55">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.6電話のブラウザで「https://アドレス:8087」を入力すると、下記画面へ遷移する。</t>
-    <rPh sb="3" eb="5">
-      <t>デンワ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7.view→view in the mendix app をクリックする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8.View Hybrid Mobile Appタブ をクリックする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9.電話でNative　it make というappを開いて、このQrcodeをスキャンすると、カメラが表示できる。</t>
-    <rPh sb="2" eb="4">
-      <t>デンワ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3274,44 +3449,48 @@
         <v>45</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:5" ht="208">
+    <row r="7" spans="2:5" ht="409.5">
       <c r="B7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +3504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
@@ -3666,7 +3845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -3705,10 +3884,10 @@
     </row>
     <row r="3" spans="3:5" ht="234">
       <c r="C3" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>38</v>
@@ -3716,7 +3895,7 @@
     </row>
     <row r="4" spans="3:5" ht="26">
       <c r="C4" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>39</v>
@@ -3755,22 +3934,22 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="2:2">
@@ -3780,58 +3959,58 @@
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="2:10">
       <c r="J177" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="2:10">
       <c r="B192" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="220" spans="2:10">
       <c r="B220" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J220" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="262" spans="2:10">
       <c r="B262" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J262" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="286" spans="10:10">
       <c r="J286" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="309" spans="10:10">
       <c r="J309" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="342" spans="10:10">
       <c r="J342" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/調査一覧.xlsx
+++ b/調査一覧.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -838,6 +838,185 @@
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+問題：
+react-nativeのImageを利用し、画像を画面に表示できません。成功にビルドでも表示していない。
+nativeにおいて、Gps用関数は使用不可です。原因調査中です。Nativeはサポートではないでしょか？
+native web hybrid 三つ環境別々で実装する
+環境構築仕方は劉さんに聞くか？
+劉さんに確認しました。理解しないことをもらう。
+公式サイトの説明の通り、ipaまたはapkようなファイルを作成する中で、appcenterのappを作成していない。Iosは呉さんに聞くか？私の左様です。Andriodは宅さんに聞くか？
+公式サイトアドレス：https://docs.mendix.com/howto/mobile/deploying-native-app
+呉さんに確認しました。依頼プロジェクトが多いです。配置が難しいので、時間をかかる。
+呉さんはちょっと忙しいので、協力できません。いつは協力するか確定できません。
+現況は以下の通りです。
+1.cameraに関して、 web、hybrid、nativeはツールだけを利用し、カメラを使っている。
+appの作成手順が調査中だから、実施していない。
+2.GPSについて、web、hybridはツールだけを利用し、GPSを使っているが、nativeに対して、利用不可ようです。
+プロジェクトに下記配置を追加するならいいでしょか？下記URLを参照してください。
+https://github.com/react-native-community/react-native-geolocation
+Make it Nativeはサポートしていない。　appを利用したら、使える。詳細が調査中です。
+3.発行について、nativeが調査中ですが、hybridが未着手です。</t>
+    </r>
+    <rPh sb="40" eb="42">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="202" eb="205">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <rPh sb="532" eb="534">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="550" eb="552">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="553" eb="554">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="568" eb="569">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="597" eb="599">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="605" eb="606">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="616" eb="618">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="618" eb="620">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="621" eb="623">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="623" eb="624">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="628" eb="630">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="687" eb="688">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="691" eb="693">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="693" eb="695">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="708" eb="710">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="710" eb="712">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="713" eb="715">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="726" eb="728">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="732" eb="734">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="840" eb="842">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="846" eb="847">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="850" eb="852">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="853" eb="855">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="855" eb="856">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="863" eb="865">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="877" eb="879">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="879" eb="880">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="891" eb="892">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">カメラwidgetには、react-native-cameraというプラグインを利用している。
+現在位置を表示するために、GPSから取り来た情報をMAPに渡して、MAPにマークされる。
+※使用部品はreact-amapです。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1085,7 +1264,7 @@
       </rPr>
       <t xml:space="preserve">GPS：
     2-1webとhybrid:取った位置がMAPにマークされる。
-　　2-2.native:問題なので、実装していない。
+　　2-2.native:問題なので、実装しましたが、正しいかどうか確定できない。
 </t>
     </r>
     <r>
@@ -1104,7 +1283,8 @@
     webとhybridブランチ：develop-web
     1-2GPSソース：
     https://github.com/fuchb/mendix-GPSTest.git
-    ブランチ：develop
+    webとhybridブランチ：develop
+    nativeブランチ：develop-native
 2.構築手順および実行結果
 詳細はシート「サンプル」を参照ください。</t>
     </r>
@@ -1159,28 +1339,161 @@
     <rPh sb="186" eb="188">
       <t>ジッソウ</t>
     </rPh>
-    <rPh sb="204" eb="206">
+    <rPh sb="194" eb="195">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
       <t>カクノウ</t>
     </rPh>
-    <rPh sb="206" eb="208">
+    <rPh sb="220" eb="222">
       <t>カショ</t>
     </rPh>
-    <rPh sb="442" eb="444">
+    <rPh sb="496" eb="498">
       <t>コウチク</t>
     </rPh>
-    <rPh sb="444" eb="446">
+    <rPh sb="498" eb="500">
       <t>テジュン</t>
     </rPh>
-    <rPh sb="449" eb="451">
+    <rPh sb="503" eb="505">
       <t>ジッコウ</t>
     </rPh>
-    <rPh sb="451" eb="453">
+    <rPh sb="505" eb="507">
       <t>ケッカ</t>
     </rPh>
-    <rPh sb="455" eb="457">
+    <rPh sb="509" eb="511">
       <t>ショウサイ</t>
     </rPh>
-    <rPh sb="468" eb="470">
+    <rPh sb="522" eb="524">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">カメラwidgetとGPSwidgetを作成する。　※手順は上記を参照ください。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.カメラ：
+　　1-1.native：写真を撮って、撮った写真を写真集に格納する。
+　　1-2.webとhybrid：写真を撮って、撮った写真が画面に表示される。
+2.GPS：
+    2-1webとhybrid:取った位置がMAPにマークされる。
+　　2-2.native:問題なので、実装しましたが、正しいかどうか確定できない。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.ソース格納箇所
+    1-1.カメラソース：
+    https://github.com/fuchb/mendix_caremrasample.git
+    nativeブランチ：develop-company-camera-fullscreen
+    webとhybridブランチ：develop-web
+    1-2GPSソース：
+    https://github.com/fuchb/mendix-GPSTest.git
+    webとhybridブランチ：develop
+    nativeブランチ：develop-native
+2.構築手順および実行結果
+詳細はシート「サンプル」を参照ください。</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="496" eb="498">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="498" eb="500">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="503" eb="505">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="505" eb="507">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="509" eb="511">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="522" eb="524">
       <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1300,7 +1613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1342,6 +1655,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3418,7 +3737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
@@ -3487,7 +3808,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>71</v>
@@ -3504,7 +3825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
@@ -3514,68 +3837,74 @@
     <col min="15" max="15" width="58.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:5">
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:5" ht="409.5">
       <c r="B7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="D7" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:5">
       <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:5">
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:5">
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:5">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:5">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:5">
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:2">

--- a/調査一覧.xlsx
+++ b/調査一覧.xlsx
@@ -794,213 +794,6 @@
   </si>
   <si>
     <t>補足説明</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>カメラ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>widget</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">には、react-native-cameraというプラグインを利用している。
-現在位置を表示するために、GPSから取り来た情報をMAPに渡して、MAPにマークされる。
-※使用部品はreact-amapです。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-問題：
-react-nativeのImageを利用し、画像を画面に表示できません。成功にビルドでも表示していない。
-nativeにおいて、Gps用関数は使用不可です。原因調査中です。Nativeはサポートではないでしょか？
-native web hybrid 三つ環境別々で実装する
-環境構築仕方は劉さんに聞くか？
-劉さんに確認しました。理解しないことをもらう。
-公式サイトの説明の通り、ipaまたはapkようなファイルを作成する中で、appcenterのappを作成していない。Iosは呉さんに聞くか？私の左様です。Andriodは宅さんに聞くか？
-公式サイトアドレス：https://docs.mendix.com/howto/mobile/deploying-native-app
-呉さんに確認しました。依頼プロジェクトが多いです。配置が難しいので、時間をかかる。
-呉さんはちょっと忙しいので、協力できません。いつは協力するか確定できません。
-現況は以下の通りです。
-1.cameraに関して、 web、hybrid、nativeはツールだけを利用し、カメラを使っている。
-appの作成手順が調査中だから、実施していない。
-2.GPSについて、web、hybridはツールだけを利用し、GPSを使っているが、nativeに対して、利用不可ようです。
-プロジェクトに下記配置を追加するならいいでしょか？下記URLを参照してください。
-https://github.com/react-native-community/react-native-geolocation
-Make it Nativeはサポートしていない。　appを利用したら、使える。詳細が調査中です。
-3.発行について、nativeが調査中ですが、hybridが未着手です。</t>
-    </r>
-    <rPh sb="40" eb="42">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ブヒン</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>ゲンイン</t>
-    </rPh>
-    <rPh sb="202" eb="205">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <rPh sb="532" eb="534">
-      <t>キョウリョク</t>
-    </rPh>
-    <rPh sb="550" eb="552">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="553" eb="554">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="568" eb="569">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="597" eb="599">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="605" eb="606">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="616" eb="618">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="618" eb="620">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="621" eb="623">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="623" eb="624">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="628" eb="630">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="687" eb="688">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="691" eb="693">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="693" eb="695">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="708" eb="710">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="710" eb="712">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="713" eb="715">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="726" eb="728">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="732" eb="734">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="840" eb="842">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="846" eb="847">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="850" eb="852">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="853" eb="855">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="855" eb="856">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="863" eb="865">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="877" eb="879">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="879" eb="880">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="891" eb="892">
-      <t>ミ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1179,6 +972,133 @@
     </rPh>
     <rPh sb="891" eb="892">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">カメラwidgetとGPSwidgetを作成する。　※手順は上記を参照ください。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.カメラ：
+　　1-1.native：写真を撮って、撮った写真を写真集に格納する。
+　　1-2.webとhybrid：写真を撮って、撮った写真が画面に表示される。
+2.GPS：
+    2-1webとhybrid:取った位置がMAPにマークされる。
+　　2-2.native:問題なので、実装しましたが、正しいかどうか確定できない。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.ソース格納箇所
+    1-1.カメラソース：
+    https://github.com/fuchb/mendix_caremrasample.git
+    nativeブランチ：develop-company-camera-fullscreen
+    webとhybridブランチ：develop-web
+    1-2GPSソース：
+    https://github.com/fuchb/mendix-GPSTest.git
+    webとhybridブランチ：develop
+    nativeブランチ：develop-native
+2.構築手順および実行結果
+詳細はシート「サンプル」を参照ください。</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="496" eb="498">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="498" eb="500">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="503" eb="505">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="505" eb="507">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="509" eb="511">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="522" eb="524">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1345,35 +1265,67 @@
     <rPh sb="201" eb="203">
       <t>カクテイ</t>
     </rPh>
+    <rPh sb="216" eb="218">
+      <t>カクノウ</t>
+    </rPh>
     <rPh sb="218" eb="220">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="220" eb="222">
       <t>カショ</t>
     </rPh>
+    <rPh sb="494" eb="496">
+      <t>コウチク</t>
+    </rPh>
     <rPh sb="496" eb="498">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="498" eb="500">
       <t>テジュン</t>
     </rPh>
+    <rPh sb="501" eb="503">
+      <t>ジッコウ</t>
+    </rPh>
     <rPh sb="503" eb="505">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="505" eb="507">
       <t>ケッカ</t>
     </rPh>
-    <rPh sb="509" eb="511">
+    <rPh sb="507" eb="509">
       <t>ショウサイ</t>
     </rPh>
-    <rPh sb="522" eb="524">
+    <rPh sb="520" eb="522">
       <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">カメラwidgetとGPSwidgetを作成する。　※手順は上記を参照ください。
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>カメラ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>widget</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">には、react-native-cameraというプラグインを利用している。
+現在位置を表示するために、GPSから取り来た情報をMAPに渡して、MAPにマークされる。
+※使用部品はreact-amapです。
+※環境構築手順が同じので、カメラNativeとGPS　WEBしか説明しない。
 </t>
     </r>
     <r>
@@ -1381,120 +1333,184 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1.カメラ：
-　　1-1.native：写真を撮って、撮った写真を写真集に格納する。
-　　1-2.webとhybrid：写真を撮って、撮った写真が画面に表示される。
-2.GPS：
-    2-1webとhybrid:取った位置がMAPにマークされる。
-　　2-2.native:問題なので、実装しましたが、正しいかどうか確定できない。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-1.ソース格納箇所
-    1-1.カメラソース：
-    https://github.com/fuchb/mendix_caremrasample.git
-    nativeブランチ：develop-company-camera-fullscreen
-    webとhybridブランチ：develop-web
-    1-2GPSソース：
-    https://github.com/fuchb/mendix-GPSTest.git
-    webとhybridブランチ：develop
-    nativeブランチ：develop-native
-2.構築手順および実行結果
-詳細はシート「サンプル」を参照ください。</t>
+問題：
+react-nativeのImageを利用し、画像を画面に表示できません。成功にビルドでも表示していない。
+nativeにおいて、Gps用関数は使用不可です。原因調査中です。Nativeはサポートではないでしょか？
+native web hybrid 三つ環境別々で実装する
+環境構築仕方は劉さんに聞くか？
+劉さんに確認しました。理解しないことをもらう。
+公式サイトの説明の通り、ipaまたはapkようなファイルを作成する中で、appcenterのappを作成していない。Iosは呉さんに聞くか？私の左様です。Andriodは宅さんに聞くか？
+公式サイトアドレス：https://docs.mendix.com/howto/mobile/deploying-native-app
+呉さんに確認しました。依頼プロジェクトが多いです。配置が難しいので、時間をかかる。
+呉さんはちょっと忙しいので、協力できません。いつは協力するか確定できません。
+現況は以下の通りです。
+1.cameraに関して、 web、hybrid、nativeはツールだけを利用し、カメラを使っている。
+appの作成手順が調査中だから、実施していない。
+2.GPSについて、web、hybridはツールだけを利用し、GPSを使っているが、nativeに対して、利用不可ようです。
+プロジェクトに下記配置を追加するならいいでしょか？下記URLを参照してください。
+https://github.com/react-native-community/react-native-geolocation
+Make it Nativeはサポートしていない。　appを利用したら、使える。詳細が調査中です。
+3.発行について、nativeが調査中ですが、hybridが未着手です。</t>
     </r>
-    <rPh sb="20" eb="22">
+    <rPh sb="40" eb="42">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="240" eb="242">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="242" eb="245">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <rPh sb="572" eb="574">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="590" eb="592">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="593" eb="594">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="608" eb="609">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="637" eb="639">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="645" eb="646">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="656" eb="658">
       <t>サクセイ</t>
     </rPh>
-    <rPh sb="27" eb="29">
+    <rPh sb="658" eb="660">
       <t>テジュン</t>
     </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
+    <rPh sb="661" eb="663">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="663" eb="664">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="668" eb="670">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="727" eb="728">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="731" eb="733">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="733" eb="735">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="748" eb="750">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="750" eb="752">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="753" eb="755">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="766" eb="768">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="772" eb="774">
       <t>サンショウ</t>
     </rPh>
-    <rPh sb="61" eb="63">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="180" eb="182">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="186" eb="188">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="194" eb="195">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="220" eb="222">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="496" eb="498">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="498" eb="500">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="503" eb="505">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="505" eb="507">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="509" eb="511">
+    <rPh sb="880" eb="882">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="886" eb="887">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="890" eb="892">
       <t>ショウサイ</t>
     </rPh>
-    <rPh sb="522" eb="524">
-      <t>サンショウ</t>
+    <rPh sb="893" eb="895">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="895" eb="896">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="903" eb="905">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="917" eb="919">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="919" eb="920">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="931" eb="932">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2172,18 +2188,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>518462</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>129358</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>72208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2202,8 +2218,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8443262" cy="5742758"/>
+          <a:off x="0" y="165100"/>
+          <a:ext cx="10058400" cy="6841308"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3737,9 +3753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
@@ -3811,7 +3825,7 @@
         <v>73</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3825,7 +3839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3862,10 +3876,10 @@
         <v>35</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -4175,7 +4189,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>

--- a/調査一覧.xlsx
+++ b/調査一覧.xlsx
@@ -10,15 +10,14 @@
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
     <sheet name="widget構築" sheetId="2" r:id="rId2"/>
     <sheet name="アーキテクチャ" sheetId="4" r:id="rId3"/>
-    <sheet name="補足説明" sheetId="5" r:id="rId4"/>
-    <sheet name="サンプル" sheetId="3" r:id="rId5"/>
+    <sheet name="サンプル" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -332,29 +331,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>2.サンプル作成：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※例はTextBoxだけです。</t>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2-10.実行結果</t>
     <rPh sb="5" eb="7">
       <t>ジッコウ</t>
@@ -365,49 +341,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>事項</t>
-    <rPh sb="0" eb="2">
-      <t>ジコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">例：
-interface IProps {
-}
-interface IState {
-    isPreview: boolean
-}
-export class CameraTest extends Component&lt;IProps, IState&gt; {
-    private camera:any;
-    constructor(props : IState) {
-        super(props);
-        this.state = {
-            isPreview: false,
-        };
-    }
-　　....
-｝
-</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当コンポーネントのハンドル取得用コールバックです。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2-7.Studio Pro「IDE」を開き、作成したプロジェクトを選択し、プロジェクトを開く。widgetsを同期化ために、F4を押す。</t>
     <rPh sb="20" eb="21">
       <t>ヒラ</t>
@@ -429,41 +362,6 @@
     </rPh>
     <rPh sb="66" eb="67">
       <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ｈｔｔｐリクエスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IOSでは、ｈｔｔｐリクエスト中で、GPSが利用できない。
-Httpリクエストからｈｔｔｐｓリクエストに変更するのは必要です。</t>
-    <rPh sb="15" eb="16">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例：local-ssl-proxy --source 8087 --target 8086</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-2.npm run dev を実行する</t>
-    <rPh sb="17" eb="19">
-      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -525,26 +423,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>子コンポーネント構造関数引数</t>
-    <rPh sb="0" eb="1">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンポーネントのrefプロパティ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>詳細はシート「widget構築」を参照してください。
 Ｗidgetを使いフレームはreactである。</t>
     <rPh sb="0" eb="2">
@@ -567,726 +445,6 @@
       <t>ショウサイ</t>
     </rPh>
     <rPh sb="16" eb="18">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構築手順および実行結果</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.指定なURL及びブランチでソースをダウンロードする。</t>
-    <rPh sb="2" eb="4">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>2.ターミナルを開く　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※パス長すぎなら、appを正常に起動できないので、パスを短くしてください。</t>
-    </r>
-    <rPh sb="14" eb="15">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ミジカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.npm install を実行する</t>
-    <rPh sb="15" eb="17">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.project直下のすべてのファイルを「./dist\MxTestProject」にコピーする</t>
-    <rPh sb="9" eb="10">
-      <t>チョク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.Studio Proでコピーしたmywidget.mprを開く。</t>
-    <rPh sb="31" eb="32">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.運行をクリックする。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Gps場合直接的にViewをクリックする。</t>
-    </r>
-    <rPh sb="2" eb="4">
-      <t>ウンコウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>チョクセツテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.1.settingsをダブルクリックする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.2.Editボタンをクリックする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.3.Serverタブをクリックする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.4.Serverタブをクリックする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.5ターミナルでlocal-ssl-proxy --source 8087 --target 8086を実行する。</t>
-    <rPh sb="53" eb="55">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.6電話のブラウザで「https://アドレス:8087」を入力すると、下記画面へ遷移する。</t>
-    <rPh sb="3" eb="5">
-      <t>デンワ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7.view→view in the mendix app をクリックする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8.View Hybrid Mobile Appタブ をクリックする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9.電話でNative　it make というappを開いて、このQrcodeをスキャンすると、カメラが表示できる。</t>
-    <rPh sb="2" eb="4">
-      <t>デンワ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロパティと状態「state」です。
-外部プロパティではなく、子コンポーネントプロパティだけです。
-Stateに関して、デフォルト値があるので、指定しなくてもいいです。
-しかし、該当コンポーネントでstateを使えば、必ず指定する。</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細はシート「補足説明」を参照してください。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>補足説明</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">カメラwidgetには、react-native-cameraというプラグインを利用している。
-現在位置を表示するために、GPSから取り来た情報をMAPに渡して、MAPにマークされる。
-※使用部品はreact-amapです。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-問題：
-react-nativeのImageを利用し、画像を画面に表示できません。成功にビルドでも表示していない。
-nativeにおいて、Gps用関数は使用不可です。原因調査中です。Nativeはサポートではないでしょか？
-native web hybrid 三つ環境別々で実装する
-環境構築仕方は劉さんに聞くか？
-劉さんに確認しました。理解しないことをもらう。
-公式サイトの説明の通り、ipaまたはapkようなファイルを作成する中で、appcenterのappを作成していない。Iosは呉さんに聞くか？私の左様です。Andriodは宅さんに聞くか？
-公式サイトアドレス：https://docs.mendix.com/howto/mobile/deploying-native-app
-呉さんに確認しました。依頼プロジェクトが多いです。配置が難しいので、時間をかかる。
-呉さんはちょっと忙しいので、協力できません。いつは協力するか確定できません。
-現況は以下の通りです。
-1.cameraに関して、 web、hybrid、nativeはツールだけを利用し、カメラを使っている。
-appの作成手順が調査中だから、実施していない。
-2.GPSについて、web、hybridはツールだけを利用し、GPSを使っているが、nativeに対して、利用不可ようです。
-プロジェクトに下記配置を追加するならいいでしょか？下記URLを参照してください。
-https://github.com/react-native-community/react-native-geolocation
-Make it Nativeはサポートしていない。　appを利用したら、使える。詳細が調査中です。
-3.発行について、nativeが調査中ですが、hybridが未着手です。</t>
-    </r>
-    <rPh sb="40" eb="42">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ブヒン</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>ゲンイン</t>
-    </rPh>
-    <rPh sb="202" eb="205">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <rPh sb="532" eb="534">
-      <t>キョウリョク</t>
-    </rPh>
-    <rPh sb="550" eb="552">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="553" eb="554">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="568" eb="569">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="597" eb="599">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="605" eb="606">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="616" eb="618">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="618" eb="620">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="621" eb="623">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="623" eb="624">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="628" eb="630">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="687" eb="688">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="691" eb="693">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="693" eb="695">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="708" eb="710">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="710" eb="712">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="713" eb="715">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="726" eb="728">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="732" eb="734">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="840" eb="842">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="846" eb="847">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="850" eb="852">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="853" eb="855">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="855" eb="856">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="863" eb="865">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="877" eb="879">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="879" eb="880">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="891" eb="892">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">カメラwidgetとGPSwidgetを作成する。　※手順は上記を参照ください。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1.カメラ：
-　　1-1.native：写真を撮って、撮った写真を写真集に格納する。
-　　1-2.webとhybrid：写真を撮って、撮った写真が画面に表示される。
-2.GPS：
-    2-1webとhybrid:取った位置がMAPにマークされる。
-　　2-2.native:問題なので、実装しましたが、正しいかどうか確定できない。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.ソース格納箇所
-    1-1.カメラソース：
-    https://github.com/fuchb/mendix_caremrasample.git
-    nativeブランチ：develop-company-camera-fullscreen
-    webとhybridブランチ：develop-web
-    1-2GPSソース：
-    https://github.com/fuchb/mendix-GPSTest.git
-    webとhybridブランチ：develop
-    nativeブランチ：develop-native
-2.構築手順および実行結果
-詳細はシート「サンプル」を参照ください。</t>
-    </r>
-    <rPh sb="20" eb="22">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="180" eb="182">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="186" eb="188">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="194" eb="195">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="220" eb="222">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="496" eb="498">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="498" eb="500">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="503" eb="505">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="505" eb="507">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="509" eb="511">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="522" eb="524">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">カメラwidgetとGPSwidgetを作成する。　※手順は上記を参照ください。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.カメラ：
-　　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1-1.native</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：写真を撮って、撮った写真を写真集に格納する。
-　　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1-2.webとhybrid：写真を撮って、撮った写真が画面に表示される。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">GPS：
-    2-1webとhybrid:取った位置がMAPにマークされる。
-　　2-2.native:問題なので、実装しましたが、正しいかどうか確定できない。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.ソース格納箇所
-    1-1.カメラソース：
-    https://github.com/fuchb/mendix_caremrasample.git
-    nativeブランチ：develop-company-camera-fullscreen
-    webとhybridブランチ：develop-web
-    1-2GPSソース：
-    https://github.com/fuchb/mendix-GPSTest.git
-    webとhybridブランチ：develop
-    nativeブランチ：develop-native
-2.構築手順および実行結果
-詳細はシート「サンプル」を参照ください。</t>
-    </r>
-    <rPh sb="20" eb="22">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="180" eb="182">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="186" eb="188">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="194" eb="195">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="216" eb="218">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="494" eb="496">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="496" eb="498">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="501" eb="503">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="503" eb="505">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="507" eb="509">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="520" eb="522">
       <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1301,7 +459,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>カメラ</t>
+      <t>①カメラ</t>
     </r>
     <r>
       <rPr>
@@ -1323,9 +481,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">には、react-native-cameraというプラグインを利用している。
-現在位置を表示するために、GPSから取り来た情報をMAPに渡して、MAPにマークされる。
+②現在位置を表示するために、GPSから取り来た情報をMAPに渡して、MAPにマークされる。
 ※使用部品はreact-amapです。
-※環境構築手順が同じので、カメラNativeとGPS　WEBしか説明しない。
 </t>
     </r>
     <r>
@@ -1337,180 +494,289 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-問題：
-react-nativeのImageを利用し、画像を画面に表示できません。成功にビルドでも表示していない。
-nativeにおいて、Gps用関数は使用不可です。原因調査中です。Nativeはサポートではないでしょか？
-native web hybrid 三つ環境別々で実装する
-環境構築仕方は劉さんに聞くか？
-劉さんに確認しました。理解しないことをもらう。
-公式サイトの説明の通り、ipaまたはapkようなファイルを作成する中で、appcenterのappを作成していない。Iosは呉さんに聞くか？私の左様です。Andriodは宅さんに聞くか？
-公式サイトアドレス：https://docs.mendix.com/howto/mobile/deploying-native-app
-呉さんに確認しました。依頼プロジェクトが多いです。配置が難しいので、時間をかかる。
-呉さんはちょっと忙しいので、協力できません。いつは協力するか確定できません。
-現況は以下の通りです。
-1.cameraに関して、 web、hybrid、nativeはツールだけを利用し、カメラを使っている。
-appの作成手順が調査中だから、実施していない。
-2.GPSについて、web、hybridはツールだけを利用し、GPSを使っているが、nativeに対して、利用不可ようです。
-プロジェクトに下記配置を追加するならいいでしょか？下記URLを参照してください。
-https://github.com/react-native-community/react-native-geolocation
-Make it Nativeはサポートしていない。　appを利用したら、使える。詳細が調査中です。
-3.発行について、nativeが調査中ですが、hybridが未着手です。</t>
+</t>
     </r>
-    <rPh sb="40" eb="42">
+    <rPh sb="41" eb="43">
       <t>リヨウ</t>
     </rPh>
+    <rPh sb="51" eb="53">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ブヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.環境構築</t>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1.指定なURL及びブランチでソースをダウンロードする。</t>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.ターミナルを開く　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※パス長すぎなら、appを正常に起動できないので、パスを短くしてください。</t>
+    </r>
+    <rPh sb="16" eb="17">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3.npm install を実行する</t>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>カメラwidgetとGPSwidgetを作成する。　※手順は上記を参照ください。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.ソース格納箇所
+    1-1.カメラソース：
+    https://github.com/fuchb/mendix_caremrasample.git
+    ブランチ：develop-web
+    1-2GPSソース：
+    https://github.com/fuchb/mendix-GPSTest.git
+    ブランチ：develop
+2.構築手順
+3.widget作成
+4.実行結果(hybrid,web)
+詳細はシート「サンプル」を参照ください。</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カクノウ</t>
+    </rPh>
     <rPh sb="49" eb="51">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ブヒン</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
       <t>コウチク</t>
     </rPh>
-    <rPh sb="121" eb="123">
+    <rPh sb="228" eb="230">
       <t>テジュン</t>
     </rPh>
-    <rPh sb="124" eb="125">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="183" eb="185">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="186" eb="188">
+    <rPh sb="239" eb="241">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="262" eb="264">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="275" eb="277">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.widget作成</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1.npm run dev を実行して、カスタムwidgetを作成する。</t>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.実行結果</t>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1.dist\MxTestProject\mywidget.mprを開く。</t>
+    <rPh sb="36" eb="37">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3-2.運行をクリックする。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Gps場合直接的にViewをクリックする。</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ウンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>チョクセツテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-3.Hybrid Phone App Online をクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-4.実行結果</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話のブラウザでアドレスを入力すると、下記画面へ遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="189" eb="191">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="197" eb="199">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="205" eb="207">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="240" eb="242">
-      <t>ゲンイン</t>
-    </rPh>
-    <rPh sb="242" eb="245">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <rPh sb="572" eb="574">
-      <t>キョウリョク</t>
-    </rPh>
-    <rPh sb="590" eb="592">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="593" eb="594">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="608" eb="609">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="637" eb="639">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="645" eb="646">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="656" eb="658">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="658" eb="660">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="661" eb="663">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="663" eb="664">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="668" eb="670">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="727" eb="728">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="731" eb="733">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="733" eb="735">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="748" eb="750">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="750" eb="752">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="753" eb="755">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="766" eb="768">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="772" eb="774">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="880" eb="882">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="886" eb="887">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="890" eb="892">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="893" eb="895">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="895" eb="896">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="903" eb="905">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="917" eb="919">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="919" eb="920">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="931" eb="932">
-      <t>ミ</t>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1519,7 +785,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1579,6 +845,22 @@
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1650,9 +932,6 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1666,17 +945,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1698,13 +974,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>39640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2083279</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>130832</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1736,13 +1012,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3778250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1796,13 +1072,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>79248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1857,13 +1133,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>96744</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1410327</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>89233</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1895,13 +1171,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1771650</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1955,13 +1231,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2527300</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>110998</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2016,13 +1292,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>25797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2070727</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>146383</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2054,13 +1330,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>89297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>38497</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2114,13 +1390,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>133747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2832100</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>130445</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2186,20 +1462,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>72208</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>82185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="4" name="図 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2218,8 +1494,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="165100"/>
-          <a:ext cx="10058400" cy="6841308"/>
+          <a:off x="609600" y="165100"/>
+          <a:ext cx="10058400" cy="7016385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2313,13 +1589,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>61692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2546829</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>32000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2350,52 +1626,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1625985</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>60293</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="755650" y="22555200"/>
-          <a:ext cx="6293235" cy="4746592"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>264086</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>603877</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>76533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2406,7 +1644,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2427,13 +1665,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>13097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>267327</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>6683</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2444,7 +1682,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2465,13 +1703,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1758950</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2525,13 +1763,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>117348</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2582,197 +1820,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1035337</xdr:colOff>
-      <xdr:row>259</xdr:row>
-      <xdr:rowOff>89229</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="869950" y="45859700"/>
-          <a:ext cx="5588287" cy="6401129"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>264</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>289</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="863600" y="53003450"/>
-          <a:ext cx="2432050" cy="4159250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>270</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="右矢印 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3714750" y="54114700"/>
-          <a:ext cx="1746250" cy="946150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>263</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2609850</xdr:colOff>
-      <xdr:row>288</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5568950" y="52920900"/>
-          <a:ext cx="2463800" cy="4171950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1708150</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2820,13 +1878,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1428750</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2877,13 +1935,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2927,205 +1985,180 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2406650</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="730250" y="41859200"/>
-          <a:ext cx="7099300" cy="4038600"/>
+          <a:off x="12553950" y="25368250"/>
+          <a:ext cx="2660650" cy="4756150"/>
+          <a:chOff x="12065000" y="52457350"/>
+          <a:chExt cx="2660650" cy="4756150"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="33" name="図 32"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12065000" y="52457350"/>
+            <a:ext cx="2660650" cy="4756150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12795250" y="54590950"/>
+            <a:ext cx="1181100" cy="774700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="角丸四角形吹き出し 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12077700" y="55632350"/>
+            <a:ext cx="1968500" cy="612648"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRoundRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 13038"/>
+              <a:gd name="adj2" fmla="val -87790"/>
+              <a:gd name="adj3" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>現在地が大連なので、大連がマークされる。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2965450</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>37703</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>140327</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>127333</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>349877</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133683</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25"/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11849100" y="39382700"/>
-          <a:ext cx="12192627" cy="6477333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>158751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>89214</xdr:colOff>
-      <xdr:row>257</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11785600" y="46551851"/>
-          <a:ext cx="6109014" cy="6083300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>263</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>482844</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>158928</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11709400" y="53492400"/>
-          <a:ext cx="4750044" cy="3460928"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>286</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438394</xdr:colOff>
-      <xdr:row>307</xdr:row>
-      <xdr:rowOff>25578</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11664950" y="57321450"/>
-          <a:ext cx="4750044" cy="3460928"/>
+          <a:off x="8388350" y="8445103"/>
+          <a:ext cx="7328527" cy="3893280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3136,26 +2169,185 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>295</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvPr id="3" name="フローチャート: 処理 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12934950" y="58470800"/>
-          <a:ext cx="1041400" cy="361950"/>
+          <a:off x="13874750" y="9569450"/>
+          <a:ext cx="609600" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2228850</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="1 つの角を切り取った四角形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7651750" y="24968200"/>
+          <a:ext cx="1797050" cy="692150"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>GPS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3651877</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>375002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="844550" y="27343100"/>
+          <a:ext cx="8230227" cy="4629502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1936750</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="28174950"/>
+          <a:ext cx="1409700" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3194,271 +2386,42 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>288</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>19447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>292</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="角丸四角形吹き出し 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13563600" y="57626250"/>
-          <a:ext cx="1587500" cy="660400"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -23233"/>
-            <a:gd name="adj2" fmla="val 79808"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ポートは</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>8086</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に設定する。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>310</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>178279</xdr:colOff>
-      <xdr:row>339</xdr:row>
-      <xdr:rowOff>76450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>140327</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>82883</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPr id="6" name="図 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11709400" y="61252100"/>
-          <a:ext cx="9322279" cy="4864350"/>
+          <a:off x="889000" y="32969597"/>
+          <a:ext cx="9131927" cy="4851336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>343</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>371</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12065000" y="66725800"/>
-          <a:ext cx="2660650" cy="4756150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>356</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>360</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12795250" y="68859400"/>
-          <a:ext cx="1181100" cy="774700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>362</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>366</xdr:row>
-      <xdr:rowOff>15748</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="角丸四角形吹き出し 34"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12077700" y="69900800"/>
-          <a:ext cx="1968500" cy="612648"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 13038"/>
-            <a:gd name="adj2" fmla="val -87790"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>現在地が大連なので、大連がマークされる。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3751,7 +2714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E7"/>
+  <dimension ref="B3:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3781,13 +2744,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3795,37 +2758,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" ht="195">
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:5" ht="409.5">
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>74</v>
+      <c r="D6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3837,11 +2788,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E109"/>
+  <dimension ref="B2:E108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
@@ -3851,74 +2800,66 @@
     <col min="15" max="15" width="58.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:2">
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="409.5">
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+    <row r="7" spans="2:2">
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
       <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="7" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="6" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="8" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="13" spans="2:2">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:2">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:2">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:2">
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:2">
@@ -3976,100 +2917,100 @@
       <c r="B34" s="6"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="39">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="39">
       <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="39">
+        <v>2</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="26">
       <c r="B38" s="3">
-        <v>2</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="26">
       <c r="B39" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="26">
-      <c r="B40" s="3">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="8" t="s">
-        <v>34</v>
+      <c r="B41" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="6" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="6" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="6"/>
@@ -4159,21 +3100,18 @@
       <c r="B74" s="6"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="6"/>
+      <c r="B75" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="2:2" ht="25.5">
-      <c r="B78" s="5"/>
-    </row>
-    <row r="109" spans="2:2" ht="25.5">
-      <c r="B109" s="5" t="s">
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="2:2" ht="25.5">
+      <c r="B77" s="5"/>
+    </row>
+    <row r="108" spans="2:2" ht="25.5">
+      <c r="B108" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4189,7 +3127,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -4203,70 +3141,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E5"/>
+  <dimension ref="B2:K233"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
-  <cols>
-    <col min="3" max="3" width="27.26953125" customWidth="1"/>
-    <col min="4" max="4" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:5">
-      <c r="C2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" ht="234">
-      <c r="C3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" ht="26">
-      <c r="C4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="3:5" ht="52">
-      <c r="C5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J342"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
@@ -4275,90 +3152,78 @@
     <col min="5" max="5" width="55.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>52</v>
+    <row r="2" spans="2:2" ht="19">
+      <c r="B2" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="6" t="s">
-        <v>54</v>
+      <c r="B4" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="19">
+      <c r="B49" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="77" spans="2:2" ht="19">
+      <c r="B77" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="11:11">
+      <c r="K151" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="177" spans="2:10">
-      <c r="J177" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="192" spans="2:10">
-      <c r="B192" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="220" spans="2:10">
-      <c r="B220" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J220" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="262" spans="2:10">
-      <c r="B262" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J262" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="286" spans="10:10">
-      <c r="J286" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="309" spans="10:10">
-      <c r="J309" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="342" spans="10:10">
-      <c r="J342" t="s">
-        <v>64</v>
-      </c>
+    <row r="163" spans="2:2">
+      <c r="B163" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" ht="41.5">
+      <c r="B191" s="6"/>
+      <c r="F191" s="17"/>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/調査一覧.xlsx
+++ b/調査一覧.xlsx
@@ -7,17 +7,23 @@
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="widget構築" sheetId="2" r:id="rId2"/>
+    <sheet name="調査報告" sheetId="8" r:id="rId1"/>
+    <sheet name="一覧" sheetId="1" r:id="rId2"/>
     <sheet name="アーキテクチャ" sheetId="4" r:id="rId3"/>
-    <sheet name="サンプル" sheetId="3" r:id="rId4"/>
+    <sheet name="環境構築" sheetId="7" r:id="rId4"/>
+    <sheet name="widget作成" sheetId="2" r:id="rId5"/>
+    <sheet name="実行手順" sheetId="3" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">調査報告!$A$1:$AE$44</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">調査報告!$1:$2</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -144,13 +150,6 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サンプル説明</t>
-    <rPh sb="4" eb="6">
-      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -373,159 +372,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">手順には下記の通りである。
-①必要ツールインストール
-②簡単サンプル作成　
-③環境構築
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>コウチク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カスタムwidgetアーキテクチャ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細はシート「widget構築」を参照してください。
-Ｗidgetを使いフレームはreactである。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細はシート「アーキテクチャ」を参照してください。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>①カメラ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>widget</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">には、react-native-cameraというプラグインを利用している。
-②現在位置を表示するために、GPSから取り来た情報をMAPに渡して、MAPにマークされる。
-※使用部品はreact-amapです。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <rPh sb="41" eb="43">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ブヒン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -603,84 +450,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>カメラwidgetとGPSwidgetを作成する。　※手順は上記を参照ください。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.ソース格納箇所
-    1-1.カメラソース：
-    https://github.com/fuchb/mendix_caremrasample.git
-    ブランチ：develop-web
-    1-2GPSソース：
-    https://github.com/fuchb/mendix-GPSTest.git
-    ブランチ：develop
-2.構築手順
-3.widget作成
-4.実行結果(hybrid,web)
-詳細はシート「サンプル」を参照ください。</t>
-    </r>
-    <rPh sb="20" eb="22">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="226" eb="228">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="228" eb="230">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="239" eb="241">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="244" eb="246">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="246" eb="248">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="262" eb="264">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="275" eb="277">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.widget作成</t>
     <rPh sb="8" eb="10">
       <t>サクセイ</t>
@@ -694,16 +463,6 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.実行結果</t>
-    <rPh sb="2" eb="4">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -762,21 +521,550 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>電話のブラウザでアドレスを入力すると、下記画面へ遷移する。</t>
+    <t>環境構築</t>
+    <rPh sb="0" eb="4">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">①カメラwidgetには、react-native-cameraというプラグインを利用している。
+②現在位置を表示するために、GPSから取り来た情報をMAPに渡して、MAPにマークされる。
+※使用部品はreact-amapです。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行手順</t>
     <rPh sb="0" eb="2">
-      <t>デンワ</t>
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「実行手順」シ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ートを参照ください
+   １web実行手順
+   2.hybrid実行手順
+</t>
+    </r>
+    <rPh sb="24" eb="26">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「widget作成」を参照して、カメラwidgetとGPSwidgetを作成する
+※Ｗidgetを使いフレームはreactである。
+※ソース格納箇所
+  　カメラソース：
+    https://github.com/fuchb/mendix_caremrasample.git
+    ブランチ：develop-web
+    GPSソース：
+    https://github.com/fuchb/mendix-GPSTest.git
+    ブランチ：develop
+</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「環境構築」を参照ください
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「アーキテクチャ」を参照してください
+</t>
+    <rPh sb="10" eb="12">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザでhttp://IP：8080を入力すると、下記画面へ遷移する。</t>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.実行手順</t>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   大連華信計算機技術股</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>有限公司</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM番号：PM-NEC-01 V1.0</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>調査報告</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>一.概要</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.mendixから提供したカスタムプラグインに関して、reactを利用し、作成できる。</t>
+    <rPh sb="10" eb="12">
+      <t>ﾃｲｷｮｳ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ｶﾝ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ﾘﾖｳ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ｻｸｾｲ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.reactはjs ES6及びTypeScript両方をサポートする。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.実行環境に関して、WEB及びモバイルで実行できる。</t>
+    <rPh sb="2" eb="4">
+      <t>ｼﾞｯｺｳ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ｶﾝｷｮｳ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ｶﾝ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ｵﾖ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ｼﾞｯｺｳ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>二.範囲・詳細</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>上記二つ観点を検証するために、下記二つ試験を試してみる。</t>
+    <rPh sb="0" eb="2">
+      <t>ｼﾞｮｳｷ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ﾌﾀ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ｶﾝﾃﾝ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ｹﾝｼｮｳ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ｶｷ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ﾌﾀ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ｼｹﾝ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ﾀﾒ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>試験①：ブラウザでカメラを利用できるか。</t>
+    <rPh sb="0" eb="2">
+      <t>ｼｹﾝ</t>
     </rPh>
     <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
+      <t>ﾘﾖｳ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>検証観点①：reactを利用し、widgetを作成かどうか。</t>
+    <rPh sb="0" eb="2">
+      <t>ｹﾝｼｮｳ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ｶﾝﾃﾝ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ﾘﾖｳ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ｻｸｾｲ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>検証観点②：外部プラグイン「カメラ用プラグイン」作成したwidgetに組み込めるかどうか</t>
+    <rPh sb="0" eb="2">
+      <t>ｹﾝｼｮｳ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ｶﾝﾃﾝ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ｶﾞｲﾌﾞ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ﾖｳ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ｻｸｾｲ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ｸ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ｺ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>検証観点③：js ES6を利用し、widgetが開発するかどうか。</t>
+    <rPh sb="13" eb="15">
+      <t>ﾘﾖｳ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ｶｲﾊﾂ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>試験②：モバイルでGPSを利用できるか。</t>
+    <rPh sb="0" eb="2">
+      <t>ｼｹﾝ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ﾘﾖｳ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>検証観点①：作成したwidgetをモバイルでは使うかどうか。</t>
+    <rPh sb="0" eb="2">
+      <t>ｹﾝｼｮｳ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ｶﾝﾃﾝ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ｻｸｾｲ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ﾂｶ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>検証観点②：TypeScriptを利用し、widgetが開発するかどうか。</t>
+    <rPh sb="0" eb="2">
+      <t>ｹﾝｼｮｳ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ｶﾝﾃﾝ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ﾘﾖｳ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ｶｲﾊﾂ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>三.方法・ツール</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.yoを利用し、widget用テンプレートが自動に作らる。</t>
+    <rPh sb="15" eb="16">
+      <t>ﾖｳ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ｼﾞﾄﾞｳ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ﾂｸ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.作らたテンプレートの上で、ロジックを実装する。</t>
+    <rPh sb="2" eb="3">
+      <t>ﾂｸ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ｳｴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ｼﾞｯｿｳ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.カメラ機能はreact-html5-camera-photoというプラグインを利用している。</t>
+    <rPh sb="7" eb="9">
+      <t>ｷﾉｳ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ﾘﾖｳ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.GPS機能は@react-native-community/geolocationというプラグインを利用している。</t>
+    <rPh sb="7" eb="9">
+      <t>ｷﾉｳ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ﾘﾖｳ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>四.結論</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.reactを利用し、widgetが作成できる。</t>
+    <rPh sb="8" eb="10">
+      <t>ﾘﾖｳ</t>
     </rPh>
     <rPh sb="19" eb="21">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センイ</t>
+      <t>ｻｸｾｲ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.ES6を利用し、widgetが作成できる。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.外部プラグインが作成したwidgetに組み込める。</t>
+    <rPh sb="2" eb="4">
+      <t>ｶﾞｲﾌﾞ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ｻｸｾｲ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ｸ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ｺ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.カスタムwidgetがwebに限らず、モビルで行える。</t>
+    <rPh sb="17" eb="18">
+      <t>ｶｷﾞ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ｵｺﾅ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.TypeScriptを利用し、widgetが作成できる。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>五.結果・サンプル</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.作成したカメラwidgetを利用したうえで、ブラウザでカメラがアクセスできる。</t>
+    <rPh sb="2" eb="4">
+      <t>ｻｸｾｲ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ﾘﾖｳ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.作成したGPSwidgetを利用したうえで、モバイルでGPSがアクセスできる。</t>
+    <rPh sb="2" eb="4">
+      <t>ｻｸｾｲ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ﾘﾖｳ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>六.課題・制限事項</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.実行環境はmendixから提供したツールで実行している。Apkようなファイルに発行するかどうかまだは調査していない。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Hybrid及びnative発行手順</t>
+    <rPh sb="8" eb="9">
+      <t>ｵﾖ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ﾊｯｺｳ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ﾃｼﾞｭﾝ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.IOS、android別々調査</t>
+    <rPh sb="13" eb="15">
+      <t>ﾍﾞﾂﾍﾞﾂ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ﾁｮｳｻ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>七.その他</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>※具体的手順は一覧シートの通りである。</t>
+    <rPh sb="1" eb="4">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -785,7 +1073,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,13 +1129,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="36"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -863,8 +1144,56 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,8 +1212,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -907,11 +1248,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -934,12 +1295,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -949,14 +1306,58 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -969,6 +1370,318 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6145" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6145"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>82185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="165100"/>
+          <a:ext cx="10058400" cy="7016385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>58898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1365729</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="795498"/>
+          <a:ext cx="6013929" cy="3138058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>176039</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>92871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1829279</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="785639" y="4296571"/>
+          <a:ext cx="6466540" cy="3374230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>61692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2546829</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>32000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="749300" y="8469092"/>
+          <a:ext cx="7220429" cy="3767608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2965450</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>37703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>349877</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8388350" y="8445103"/>
+          <a:ext cx="7328527" cy="3893280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="フローチャート: 処理 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13874750" y="9569450"/>
+          <a:ext cx="609600" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1458,182 +2171,19 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>82185</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="165100"/>
-          <a:ext cx="10058400" cy="7016385"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:colOff>264086</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>58898</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1365729</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>60056</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="774700" y="10790398"/>
-          <a:ext cx="6013929" cy="3138058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>176039</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>92871</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1829279</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="785639" y="14291471"/>
-          <a:ext cx="6466540" cy="3374230"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>61692</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2546829</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>32000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="749300" y="18222692"/>
-          <a:ext cx="7220429" cy="3767608"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>264086</xdr:colOff>
-      <xdr:row>78</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>603877</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>76533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1644,7 +2194,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1665,13 +2215,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>13097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>267327</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>6683</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1682,7 +2232,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1703,13 +2253,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1758950</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1763,13 +2313,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>117348</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1824,13 +2374,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1708150</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1878,13 +2428,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1428750</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1923,8 +2473,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>Hybrid</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
-            <a:t>カメラ場合</a:t>
+            <a:t>場合</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1935,13 +2489,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1989,13 +2543,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2005,7 +2559,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12553950" y="25368250"/>
+          <a:off x="12553950" y="12998450"/>
           <a:ext cx="2660650" cy="4756150"/>
           <a:chOff x="12065000" y="52457350"/>
           <a:chExt cx="2660650" cy="4756150"/>
@@ -2019,7 +2573,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2129,115 +2683,17 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2965450</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>37703</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>349877</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>133683</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8388350" y="8445103"/>
-          <a:ext cx="7328527" cy="3893280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="フローチャート: 処理 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13874750" y="9569450"/>
-          <a:ext cx="609600" cy="139700"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2228850</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2277,7 +2733,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
-            <a:t>GPS</a:t>
+            <a:t>WEB</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
@@ -2292,13 +2748,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3651877</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>375002</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2309,7 +2765,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2330,13 +2786,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1936750</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2390,13 +2846,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>19447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>140327</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>82883</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2407,7 +2863,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2713,10 +3169,1606 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="16" customHeight="1"/>
+  <cols>
+    <col min="1" max="30" width="2.90625" style="26" customWidth="1"/>
+    <col min="31" max="31" width="11.90625" style="26" customWidth="1"/>
+    <col min="32" max="16384" width="9.81640625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="16" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="24" customHeight="1">
+      <c r="A2" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+    </row>
+    <row r="3" spans="1:31" ht="16" customHeight="1">
+      <c r="A3" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+    </row>
+    <row r="4" spans="1:31" ht="16" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+    </row>
+    <row r="5" spans="1:31" ht="16" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+    </row>
+    <row r="6" spans="1:31" ht="16" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+    </row>
+    <row r="7" spans="1:31" ht="16" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+    </row>
+    <row r="8" spans="1:31" ht="16" customHeight="1">
+      <c r="A8" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+    </row>
+    <row r="9" spans="1:31" ht="16" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+    </row>
+    <row r="10" spans="1:31" ht="16" customHeight="1">
+      <c r="A10" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+    </row>
+    <row r="11" spans="1:31" ht="16" customHeight="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+    </row>
+    <row r="12" spans="1:31" ht="16" customHeight="1">
+      <c r="A12" s="28"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+    </row>
+    <row r="13" spans="1:31" ht="16" customHeight="1">
+      <c r="A13" s="28"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+    </row>
+    <row r="14" spans="1:31" ht="16" customHeight="1">
+      <c r="A14" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+    </row>
+    <row r="15" spans="1:31" ht="16" customHeight="1">
+      <c r="A15" s="28"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+    </row>
+    <row r="16" spans="1:31" ht="16" customHeight="1">
+      <c r="A16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+    </row>
+    <row r="17" spans="1:31" ht="16" customHeight="1">
+      <c r="A17" s="28"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+    </row>
+    <row r="18" spans="1:31" ht="16" customHeight="1">
+      <c r="A18" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+    </row>
+    <row r="19" spans="1:31" ht="16" customHeight="1">
+      <c r="A19" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+    </row>
+    <row r="20" spans="1:31" ht="16" customHeight="1">
+      <c r="A20" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+    </row>
+    <row r="21" spans="1:31" ht="16" customHeight="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+    </row>
+    <row r="22" spans="1:31" ht="16" customHeight="1">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+    </row>
+    <row r="23" spans="1:31" ht="16" customHeight="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+    </row>
+    <row r="24" spans="1:31" ht="16" customHeight="1">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+    </row>
+    <row r="25" spans="1:31" ht="16" customHeight="1">
+      <c r="A25" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+    </row>
+    <row r="26" spans="1:31" ht="16" customHeight="1">
+      <c r="A26" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+    </row>
+    <row r="27" spans="1:31" ht="16" customHeight="1">
+      <c r="A27" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+    </row>
+    <row r="28" spans="1:31" ht="15" customHeight="1">
+      <c r="A28" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+    </row>
+    <row r="29" spans="1:31" ht="16" customHeight="1">
+      <c r="A29" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+    </row>
+    <row r="30" spans="1:31" ht="16" customHeight="1">
+      <c r="A30" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+    </row>
+    <row r="31" spans="1:31" ht="16" customHeight="1">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+    </row>
+    <row r="32" spans="1:31" ht="16" customHeight="1">
+      <c r="A32" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+    </row>
+    <row r="33" spans="1:31" ht="16" customHeight="1">
+      <c r="A33" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+    </row>
+    <row r="34" spans="1:31" ht="16" customHeight="1">
+      <c r="A34" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+    </row>
+    <row r="35" spans="1:31" ht="16" customHeight="1">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+    </row>
+    <row r="36" spans="1:31" ht="16" customHeight="1">
+      <c r="A36" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+    </row>
+    <row r="37" spans="1:31" ht="16" customHeight="1">
+      <c r="A37" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="27"/>
+    </row>
+    <row r="38" spans="1:31" ht="16" customHeight="1">
+      <c r="A38" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
+      <c r="AE38" s="27"/>
+    </row>
+    <row r="39" spans="1:31" ht="16" customHeight="1">
+      <c r="A39" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27"/>
+      <c r="AE39" s="27"/>
+    </row>
+    <row r="40" spans="1:31" ht="16" customHeight="1">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
+    </row>
+    <row r="41" spans="1:31" ht="16" customHeight="1">
+      <c r="A41" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+    </row>
+    <row r="42" spans="1:31" ht="16" customHeight="1">
+      <c r="A42" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="27"/>
+    </row>
+    <row r="43" spans="1:31" ht="16" customHeight="1">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+    </row>
+    <row r="44" spans="1:31" ht="16" customHeight="1">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A36:AE36"/>
+    <mergeCell ref="A41:AE41"/>
+    <mergeCell ref="A2:AE2"/>
+    <mergeCell ref="A3:AE3"/>
+    <mergeCell ref="A8:AE8"/>
+    <mergeCell ref="A18:AE18"/>
+    <mergeCell ref="A25:AE25"/>
+    <mergeCell ref="A32:AE32"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.78740157480314965" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;9Copyright© 2007 Dalian Hi-Think Computer Technology, Corp.&amp;R&amp;9第 &amp;P 页 / 共 &amp;N 页</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="31" max="32" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="MSDraw" shapeId="6145" r:id="rId5">
+          <objectPr locked="0" defaultSize="0" autoPict="0" r:id="rId6">
+            <anchor>
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="MSDraw" shapeId="6145" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E6"/>
+  <dimension ref="B3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
@@ -2739,44 +4791,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="78">
-      <c r="B4" s="3">
+    <row r="4" spans="2:5" ht="26">
+      <c r="B4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="2:5" ht="26">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="3">
+      <c r="C5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="2:5" ht="143">
+      <c r="B6" s="19">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:5" ht="195">
-      <c r="B6" s="3">
+      <c r="C6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="52">
+      <c r="B7" s="19">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>42</v>
+      <c r="C7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2786,11 +4850,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E79"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <cols>
+    <col min="3" max="3" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" customWidth="1"/>
+    <col min="5" max="5" width="55.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="19">
+      <c r="B2" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="19">
+      <c r="B49" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E108"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
@@ -2807,32 +4943,32 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -2917,17 +5053,17 @@
       <c r="B34" s="6"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="D35" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="E35" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="39">
@@ -2935,13 +5071,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>29</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="39">
@@ -2949,13 +5085,13 @@
         <v>2</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="E37" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="26">
@@ -2963,13 +5099,13 @@
         <v>3</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="26">
@@ -2977,16 +5113,16 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -2996,7 +5132,7 @@
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="2:5">
@@ -3101,7 +5237,7 @@
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="2:2">
@@ -3122,26 +5258,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K233"/>
+  <dimension ref="B3:K159"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3152,73 +5271,42 @@
     <col min="5" max="5" width="55.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="19">
-      <c r="B2" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:2" ht="19">
+      <c r="B3" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="15" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="6" t="s">
+    <row r="77" spans="11:11">
+      <c r="K77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="19">
-      <c r="B49" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="16"/>
-    </row>
-    <row r="77" spans="2:2" ht="19">
-      <c r="B77" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="151" spans="11:11">
-      <c r="K151" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="191" spans="2:6" ht="41.5">
-      <c r="B191" s="6"/>
-      <c r="F191" s="17"/>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2">
-      <c r="B233" s="6"/>
+    <row r="117" spans="2:6" ht="41.5">
+      <c r="B117" s="6"/>
+      <c r="F117" s="15"/>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
